--- a/defocused_vs_sharp.xlsx
+++ b/defocused_vs_sharp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Tesi Image Quality DermChecker\Tesi-Image-Quality-DermChecker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DDA92C-193E-4678-AAE5-E02622AED61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700E6FE0-37F9-41E7-A318-5BFCF2EEDD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2093,7 +2093,7 @@
   <dimension ref="A1:O275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6:O10"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
